--- a/mosh/Command Signature and Description.xlsx
+++ b/mosh/Command Signature and Description.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Dropbox\PC\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\amazon-sp-api-laravel\mosh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15520" windowHeight="5070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="5070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
   <si>
     <t>Command Signature</t>
   </si>
@@ -189,13 +189,43 @@
   </si>
   <si>
     <t>Import Universal textiles from given url</t>
+  </si>
+  <si>
+    <t>pms:stock-tracking</t>
+  </si>
+  <si>
+    <t>Comamand/Inventory</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Keeps track Of  entire Stocks</t>
+  </si>
+  <si>
+    <t>mosh:warehouse-track</t>
+  </si>
+  <si>
+    <t>Keeps track Of  Watehouse wise Stocks</t>
+  </si>
+  <si>
+    <t>mosh:tag-track</t>
+  </si>
+  <si>
+    <t>warehouse_stock_track</t>
+  </si>
+  <si>
+    <t>tagwise_stock_track</t>
+  </si>
+  <si>
+    <t>Keeps Track of Inventoey Stocks Tagswise</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -215,6 +245,18 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF4EC9B0"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -276,12 +318,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -562,21 +611,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.90625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.453125" customWidth="1"/>
-    <col min="3" max="3" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.42578125" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -590,7 +639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -604,7 +653,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -618,7 +667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -632,7 +681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
@@ -646,7 +695,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -660,7 +709,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -674,7 +723,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -688,7 +737,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -702,7 +751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -716,7 +765,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -730,7 +779,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -744,7 +793,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -758,7 +807,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -772,7 +821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -786,7 +835,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -800,11 +849,50 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/mosh/Command Signature and Description.xlsx
+++ b/mosh/Command Signature and Description.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\amazon-sp-api-laravel\mosh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\amazon-sp-api-laravel\mosh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="5070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="5070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,12 +249,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF4EC9B0"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -318,7 +312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -328,9 +322,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -614,18 +605,18 @@
   <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.42578125" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.453125" customWidth="1"/>
+    <col min="3" max="3" width="53.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -639,7 +630,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -653,7 +644,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
@@ -667,7 +658,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -681,7 +672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>49</v>
       </c>
@@ -695,7 +686,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>52</v>
       </c>
@@ -709,7 +700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -723,7 +714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>15</v>
       </c>
@@ -737,7 +728,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>18</v>
       </c>
@@ -751,7 +742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -765,7 +756,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
@@ -779,7 +770,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>35</v>
       </c>
@@ -793,7 +784,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>36</v>
       </c>
@@ -807,7 +798,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -821,7 +812,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
         <v>40</v>
       </c>
@@ -835,7 +826,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
@@ -849,7 +840,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
         <v>55</v>
       </c>
@@ -863,7 +854,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>59</v>
       </c>
@@ -877,21 +868,21 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" t="s">
         <v>64</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
     </row>
   </sheetData>

--- a/mosh/Command Signature and Description.xlsx
+++ b/mosh/Command Signature and Description.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\laragon\www\amazon-sp-api-laravel\mosh\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\amazon-sp-api-laravel\mosh\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15530" windowHeight="5070"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15525" windowHeight="5070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="179">
   <si>
     <t>Command Signature</t>
   </si>
@@ -38,9 +38,6 @@
     <t>BusinessAPI/access_token_generate.php</t>
   </si>
   <si>
-    <t>Generates the access code using Referesh Token(Business API)</t>
-  </si>
-  <si>
     <t>mosh:access_token_generate</t>
   </si>
   <si>
@@ -219,6 +216,351 @@
   </si>
   <si>
     <t>Keeps Track of Inventoey Stocks Tagswise</t>
+  </si>
+  <si>
+    <t>mosh:business_products_dump</t>
+  </si>
+  <si>
+    <t>BusinessAPI/business_product_dump.php</t>
+  </si>
+  <si>
+    <t>Command Will get The Details of the Products of US Through Business API</t>
+  </si>
+  <si>
+    <t>BusinessAPI</t>
+  </si>
+  <si>
+    <t>mosh:order_cliqnshop_place</t>
+  </si>
+  <si>
+    <t>fetch the data from cliqnshop order table and places order Through order API</t>
+  </si>
+  <si>
+    <t>BusinessAPI/cliqnshop_orders_call.php</t>
+  </si>
+  <si>
+    <t>Generates the access code using Referesh Token</t>
+  </si>
+  <si>
+    <t>mosh:asin-destination-csv-export</t>
+  </si>
+  <si>
+    <t>Export asin-destination form DB to CSV file</t>
+  </si>
+  <si>
+    <t>Catalog/AsinDestinationCSVExport.php</t>
+  </si>
+  <si>
+    <t>mosh:Asin-destination-upload {user_id} {priority} {--destination=}</t>
+  </si>
+  <si>
+    <t>Catalog/AsinDestinationUpload.php</t>
+  </si>
+  <si>
+    <t>Asin Destination File Uploa</t>
+  </si>
+  <si>
+    <t>mosh:catalog-amazon-import</t>
+  </si>
+  <si>
+    <t>Catalog/CatalogAmazonImport.php</t>
+  </si>
+  <si>
+    <t>Catalog Amazon Import Queue</t>
+  </si>
+  <si>
+    <t>mosh:catalog-dashboard-file</t>
+  </si>
+  <si>
+    <t>Catalog/CatalogDashboardFileCreater.php</t>
+  </si>
+  <si>
+    <t>Create json file for catalog dashboard</t>
+  </si>
+  <si>
+    <t>mosh:catalog-export-csv {priority} {country_code}</t>
+  </si>
+  <si>
+    <t>Catalog/catalogExportCSV.php</t>
+  </si>
+  <si>
+    <t>Catalog export into csv file</t>
+  </si>
+  <si>
+    <t>mosh:catalog-price-export-csv {priority} {country_code}</t>
+  </si>
+  <si>
+    <t>Catalog/CatalogPriceExportCSV.php</t>
+  </si>
+  <si>
+    <t>Export catalog Price in CSV accroding to Country code</t>
+  </si>
+  <si>
+    <t>mosh:Catalog-price-import-bb-us</t>
+  </si>
+  <si>
+    <t>Catalog/CatalogPriceImport</t>
+  </si>
+  <si>
+    <t>Import catalog from buy box for US</t>
+  </si>
+  <si>
+    <t>mosh:Catalog-price-import-bb-in</t>
+  </si>
+  <si>
+    <t>Catalog/CatalogPriceImportIN</t>
+  </si>
+  <si>
+    <t>Import catalog price form bb table for IN</t>
+  </si>
+  <si>
+    <t>mosh:Asin-destination-delete-priority-wise {priority} {--destinations=}</t>
+  </si>
+  <si>
+    <t>Catalog/DeleteAsinDestinationPriorityWise.php</t>
+  </si>
+  <si>
+    <t> Delete AsinDestination's ASIN according to priority</t>
+  </si>
+  <si>
+    <t>mosh:feed-tracking-details-to-amazon</t>
+  </si>
+  <si>
+    <t>FeedAmazon/FeedTrackingdetails.php</t>
+  </si>
+  <si>
+    <t>B2cship Tracking Details Feed to Amazon</t>
+  </si>
+  <si>
+    <t>Feed</t>
+  </si>
+  <si>
+    <t>mosh:order-address-missing-upload</t>
+  </si>
+  <si>
+    <t>Orders/LabelMissingAddressUpload.php</t>
+  </si>
+  <si>
+    <t>Command description</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>mosh:order-item-details-import</t>
+  </si>
+  <si>
+    <t>Orders/OrderItemDetailsImport.php</t>
+  </si>
+  <si>
+    <t>Import Order item details for each order</t>
+  </si>
+  <si>
+    <t>mosh:order-csv-import {store_id}</t>
+  </si>
+  <si>
+    <t>orders/OrdersCsvImport.php</t>
+  </si>
+  <si>
+    <t>csv file import for Orders</t>
+  </si>
+  <si>
+    <t>Upload csv file</t>
+  </si>
+  <si>
+    <t>rate master</t>
+  </si>
+  <si>
+    <t>mosh:shipntrack-packet-tracking</t>
+  </si>
+  <si>
+    <t>Shipntrack/Tracking/packetTracking.php</t>
+  </si>
+  <si>
+    <t>Packet Tracking untill getting targeted event</t>
+  </si>
+  <si>
+    <t>Shipntrack</t>
+  </si>
+  <si>
+    <t>mosh:tracking-event-master {courier_partner}</t>
+  </si>
+  <si>
+    <t>Shipntrack/TrackingEventMaster/UploadTrackingEventMasterCSV.php</t>
+  </si>
+  <si>
+    <t>Upload csv file for Tracking event master</t>
+  </si>
+  <si>
+    <t>pms:b2cship-kyc-status</t>
+  </si>
+  <si>
+    <t>B2cship_kyc_status.phhp</t>
+  </si>
+  <si>
+    <t>B2Cship</t>
+  </si>
+  <si>
+    <t>pms:boe-upload-Do</t>
+  </si>
+  <si>
+    <t>BoeUploadServerToDo.php</t>
+  </si>
+  <si>
+    <t>BoE</t>
+  </si>
+  <si>
+    <t>Upload BOE file from server to DO</t>
+  </si>
+  <si>
+    <t>pms:bombino-packet-activities {month} {year}</t>
+  </si>
+  <si>
+    <t>BombinoPacketActivitie.php</t>
+  </si>
+  <si>
+    <t>Create json file according to month for bombino packet activities details</t>
+  </si>
+  <si>
+    <t>Bombino</t>
+  </si>
+  <si>
+    <t>pms:country-state-city</t>
+  </si>
+  <si>
+    <t>Countrystatecity.php</t>
+  </si>
+  <si>
+    <t>Get country, state and city data from json file</t>
+  </si>
+  <si>
+    <t>GEO</t>
+  </si>
+  <si>
+    <t>excelBulkPdfDownload.php</t>
+  </si>
+  <si>
+    <t>pms:excel-bulkpdf-download</t>
+  </si>
+  <si>
+    <t>exportOtherAmazonInProduct</t>
+  </si>
+  <si>
+    <t>pms:export-other-amazon-in {selected} {email} {id} {type}</t>
+  </si>
+  <si>
+    <t>Export AWS other_amazon.in product table into csv with realtime progress</t>
+  </si>
+  <si>
+    <t>__</t>
+  </si>
+  <si>
+    <t>pms:export-other-amazon {selected} {email} {id} {type}</t>
+  </si>
+  <si>
+    <t>exportOtherAmazonProduct</t>
+  </si>
+  <si>
+    <t>Export AWS other_amazon product table into csv with realtime progress</t>
+  </si>
+  <si>
+    <t>mosh:inventory_catalog_import';</t>
+  </si>
+  <si>
+    <t>Import_inventory_catalog.php</t>
+  </si>
+  <si>
+    <t>Inventroy Catalog Import</t>
+  </si>
+  <si>
+    <t>pms:invoice-bulk-zip-download {passid} {currenturl}</t>
+  </si>
+  <si>
+    <t>Download zip file for invoice</t>
+  </si>
+  <si>
+    <t>pms:invoice-excel-import</t>
+  </si>
+  <si>
+    <t>invoiceExcelImport.php</t>
+  </si>
+  <si>
+    <t>invoiceBulkZipDownload.php</t>
+  </si>
+  <si>
+    <t>Export uploaded excel sheet</t>
+  </si>
+  <si>
+    <t>pms:microstatus-report</t>
+  </si>
+  <si>
+    <t>MicroStatusReport.php</t>
+  </si>
+  <si>
+    <t>Micro Status Report to create json file to store last 30 days micro status dat</t>
+  </si>
+  <si>
+    <t>pms:other-catalog-asin-import {user} {type}</t>
+  </si>
+  <si>
+    <t>OtherCatalogAsinImport.php</t>
+  </si>
+  <si>
+    <t>pms:catalog-impor</t>
+  </si>
+  <si>
+    <t>ProductCatalogImport.php</t>
+  </si>
+  <si>
+    <t>SP API catalog import through ASIN</t>
+  </si>
+  <si>
+    <t>pms:remove-uploaded-boe</t>
+  </si>
+  <si>
+    <t>Remove uploaded file from server</t>
+  </si>
+  <si>
+    <t>RemoveUploadedFiles.php</t>
+  </si>
+  <si>
+    <t>BOE</t>
+  </si>
+  <si>
+    <t>mosh:rename-amazon-invoice</t>
+  </si>
+  <si>
+    <t>RenameAmazonInvoice.php</t>
+  </si>
+  <si>
+    <t>Seller catalog import from amazon catalog API</t>
+  </si>
+  <si>
+    <t>Seller Asin Remove</t>
+  </si>
+  <si>
+    <t>sellerAsinRemove</t>
+  </si>
+  <si>
+    <t>pms:seller-catalog-csv-export {user} {id}</t>
+  </si>
+  <si>
+    <t>sellerCatalogCSVExport.php</t>
+  </si>
+  <si>
+    <t>pms:sellers-orders-import</t>
+  </si>
+  <si>
+    <t>Get Seller orders from Amazon for selected seller</t>
+  </si>
+  <si>
+    <t>Invoice</t>
+  </si>
+  <si>
+    <t>Microstatus</t>
+  </si>
+  <si>
+    <t>pms:seller-catalog-import {seller</t>
   </si>
 </sst>
 </file>
@@ -247,10 +589,12 @@
       <family val="1"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFCE9178"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -309,21 +653,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Explanatory Text" xfId="1" builtinId="53"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -602,21 +947,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.453125" customWidth="1"/>
-    <col min="3" max="3" width="53.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="42.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="79.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -627,266 +972,795 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>71</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="3" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>64</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>96</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="C30" t="s">
+        <v>98</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" t="s">
+        <v>101</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>103</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C33" t="s">
+        <v>109</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="B35" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>113</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" t="s">
+        <v>105</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>125</v>
+      </c>
+      <c r="B39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>138</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="C42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>140</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" t="s">
+        <v>144</v>
+      </c>
+      <c r="C44" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>146</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="C46" t="s">
+        <v>150</v>
+      </c>
+      <c r="D46" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" t="s">
+        <v>154</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>155</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C48" t="s">
+        <v>157</v>
+      </c>
+      <c r="D48" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>163</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>167</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C52" t="s">
+        <v>105</v>
+      </c>
+      <c r="D52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>29</v>
+      </c>
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s">
+        <v>105</v>
+      </c>
+      <c r="D53" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C11" s="3" t="s">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>178</v>
+      </c>
+      <c r="B54" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="3" t="s">
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="3" t="s">
+      <c r="B55" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" t="s">
+        <v>170</v>
+      </c>
+      <c r="D55" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" t="s">
+        <v>173</v>
+      </c>
+      <c r="C56" t="s">
+        <v>105</v>
+      </c>
+      <c r="D56" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>174</v>
+      </c>
+      <c r="B57" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="C19" t="s">
-        <v>64</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
+      <c r="C57" t="s">
+        <v>175</v>
+      </c>
+      <c r="D57" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D38" r:id="rId1" display="B@Cship"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/mosh/Command Signature and Description.xlsx
+++ b/mosh/Command Signature and Description.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="171">
   <si>
     <t>Command Signature</t>
   </si>
@@ -533,34 +533,10 @@
     <t>RenameAmazonInvoice.php</t>
   </si>
   <si>
-    <t>Seller catalog import from amazon catalog API</t>
-  </si>
-  <si>
-    <t>Seller Asin Remove</t>
-  </si>
-  <si>
-    <t>sellerAsinRemove</t>
-  </si>
-  <si>
-    <t>pms:seller-catalog-csv-export {user} {id}</t>
-  </si>
-  <si>
-    <t>sellerCatalogCSVExport.php</t>
-  </si>
-  <si>
-    <t>pms:sellers-orders-import</t>
-  </si>
-  <si>
-    <t>Get Seller orders from Amazon for selected seller</t>
-  </si>
-  <si>
     <t>Invoice</t>
   </si>
   <si>
     <t>Microstatus</t>
-  </si>
-  <si>
-    <t>pms:seller-catalog-import {seller</t>
   </si>
 </sst>
 </file>
@@ -949,8 +925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C62" sqref="C62"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1599,7 +1575,7 @@
         <v>150</v>
       </c>
       <c r="D46" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
@@ -1613,7 +1589,7 @@
         <v>154</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
@@ -1627,7 +1603,7 @@
         <v>157</v>
       </c>
       <c r="D48" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
@@ -1683,78 +1659,17 @@
         <v>105</v>
       </c>
       <c r="D52" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>29</v>
-      </c>
-      <c r="B53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" t="s">
-        <v>105</v>
-      </c>
-      <c r="D53" t="s">
-        <v>27</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>178</v>
-      </c>
-      <c r="B54" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C54" t="s">
-        <v>169</v>
-      </c>
-      <c r="D54" t="s">
-        <v>27</v>
-      </c>
+      <c r="B54" s="7"/>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>35</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C55" t="s">
-        <v>170</v>
-      </c>
-      <c r="D55" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>172</v>
-      </c>
-      <c r="B56" t="s">
-        <v>173</v>
-      </c>
-      <c r="C56" t="s">
-        <v>105</v>
-      </c>
-      <c r="D56" t="s">
-        <v>27</v>
-      </c>
+      <c r="B55" s="7"/>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>174</v>
-      </c>
-      <c r="B57" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C57" t="s">
-        <v>175</v>
-      </c>
-      <c r="D57" t="s">
-        <v>27</v>
-      </c>
+      <c r="B57" s="7"/>
     </row>
   </sheetData>
   <hyperlinks>
